--- a/testdata/无纸化测试文件.xlsx
+++ b/testdata/无纸化测试文件.xlsx
@@ -1471,14 +1471,8 @@
           <t>y</t>
         </is>
       </c>
-      <c r="G4" s="45" t="n">
-        <v>43823.62709085648</v>
-      </c>
-      <c r="H4" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G4" s="45" t="inlineStr"/>
+      <c r="H4" s="47" t="inlineStr"/>
       <c r="I4" s="21" t="n"/>
       <c r="J4" s="21" t="n"/>
       <c r="K4" s="21" t="n"/>
@@ -1513,14 +1507,8 @@
           <t>y</t>
         </is>
       </c>
-      <c r="G5" s="45" t="n">
-        <v>43823.62723653935</v>
-      </c>
-      <c r="H5" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G5" s="45" t="inlineStr"/>
+      <c r="H5" s="47" t="inlineStr"/>
       <c r="I5" s="21" t="n"/>
       <c r="J5" s="21" t="n"/>
       <c r="K5" s="21" t="n"/>
@@ -1555,14 +1543,8 @@
           <t>y</t>
         </is>
       </c>
-      <c r="G6" s="45" t="n">
-        <v>43823.62736172454</v>
-      </c>
-      <c r="H6" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G6" s="45" t="inlineStr"/>
+      <c r="H6" s="47" t="inlineStr"/>
       <c r="I6" s="21" t="n"/>
       <c r="J6" s="21" t="n"/>
       <c r="K6" s="21" t="n"/>
@@ -1597,14 +1579,8 @@
           <t>y</t>
         </is>
       </c>
-      <c r="G7" s="45" t="n">
-        <v>43823.62751550926</v>
-      </c>
-      <c r="H7" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G7" s="45" t="inlineStr"/>
+      <c r="H7" s="47" t="inlineStr"/>
       <c r="I7" s="21" t="n"/>
       <c r="J7" s="21" t="n"/>
       <c r="K7" s="21" t="n"/>
@@ -1639,14 +1615,8 @@
           <t>y</t>
         </is>
       </c>
-      <c r="G8" s="45" t="n">
-        <v>43823.62765684028</v>
-      </c>
-      <c r="H8" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G8" s="45" t="inlineStr"/>
+      <c r="H8" s="47" t="inlineStr"/>
       <c r="I8" s="21" t="n"/>
       <c r="J8" s="21" t="n"/>
       <c r="K8" s="21" t="n"/>
@@ -1681,14 +1651,8 @@
           <t>y</t>
         </is>
       </c>
-      <c r="G9" s="45" t="n">
-        <v>43823.62782417824</v>
-      </c>
-      <c r="H9" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G9" s="45" t="inlineStr"/>
+      <c r="H9" s="47" t="inlineStr"/>
       <c r="I9" s="21" t="n"/>
       <c r="J9" s="21" t="n"/>
       <c r="K9" s="21" t="n"/>
@@ -1723,14 +1687,8 @@
           <t>y</t>
         </is>
       </c>
-      <c r="G10" s="45" t="n">
-        <v>43823.62804302084</v>
-      </c>
-      <c r="H10" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G10" s="45" t="inlineStr"/>
+      <c r="H10" s="47" t="inlineStr"/>
       <c r="I10" s="21" t="n"/>
       <c r="J10" s="21" t="n"/>
       <c r="K10" s="21" t="n"/>
@@ -1766,14 +1724,8 @@
           <t>y</t>
         </is>
       </c>
-      <c r="G11" s="45" t="n">
-        <v>43823.62823320602</v>
-      </c>
-      <c r="H11" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G11" s="45" t="inlineStr"/>
+      <c r="H11" s="47" t="inlineStr"/>
       <c r="I11" s="21" t="n"/>
       <c r="J11" s="21" t="n"/>
       <c r="K11" s="21" t="n"/>
@@ -1809,14 +1761,8 @@
           <t>y</t>
         </is>
       </c>
-      <c r="G12" s="45" t="n">
-        <v>43823.62842454861</v>
-      </c>
-      <c r="H12" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G12" s="45" t="inlineStr"/>
+      <c r="H12" s="47" t="inlineStr"/>
       <c r="I12" s="21" t="n"/>
       <c r="J12" s="21" t="n"/>
       <c r="K12" s="21" t="n"/>
@@ -1852,14 +1798,8 @@
           <t>y</t>
         </is>
       </c>
-      <c r="G13" s="45" t="n">
-        <v>43823.62863160879</v>
-      </c>
-      <c r="H13" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G13" s="45" t="inlineStr"/>
+      <c r="H13" s="47" t="inlineStr"/>
       <c r="I13" s="21" t="n"/>
       <c r="J13" s="21" t="n"/>
       <c r="K13" s="21" t="n"/>
@@ -1895,14 +1835,8 @@
           <t>y</t>
         </is>
       </c>
-      <c r="G14" s="45" t="n">
-        <v>43823.62881664352</v>
-      </c>
-      <c r="H14" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G14" s="45" t="inlineStr"/>
+      <c r="H14" s="47" t="inlineStr"/>
       <c r="I14" s="21" t="n"/>
       <c r="J14" s="21" t="n"/>
       <c r="K14" s="21" t="n"/>
@@ -1938,14 +1872,8 @@
           <t>y</t>
         </is>
       </c>
-      <c r="G15" s="45" t="n">
-        <v>43823.62901276621</v>
-      </c>
-      <c r="H15" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G15" s="45" t="inlineStr"/>
+      <c r="H15" s="47" t="inlineStr"/>
       <c r="I15" s="21" t="n"/>
       <c r="J15" s="21" t="n"/>
       <c r="K15" s="21" t="n"/>
@@ -1981,14 +1909,8 @@
           <t>y</t>
         </is>
       </c>
-      <c r="G16" s="45" t="n">
-        <v>43823.62919177084</v>
-      </c>
-      <c r="H16" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G16" s="45" t="inlineStr"/>
+      <c r="H16" s="47" t="inlineStr"/>
       <c r="I16" s="21" t="n"/>
       <c r="J16" s="21" t="n"/>
       <c r="K16" s="21" t="n"/>
@@ -2024,14 +1946,8 @@
           <t>y</t>
         </is>
       </c>
-      <c r="G17" s="45" t="n">
-        <v>43823.62939210648</v>
-      </c>
-      <c r="H17" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G17" s="45" t="inlineStr"/>
+      <c r="H17" s="47" t="inlineStr"/>
       <c r="I17" s="21" t="n"/>
       <c r="J17" s="21" t="n"/>
       <c r="K17" s="21" t="n"/>
@@ -2067,14 +1983,8 @@
           <t>y</t>
         </is>
       </c>
-      <c r="G18" s="45" t="n">
-        <v>43823.6295625</v>
-      </c>
-      <c r="H18" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G18" s="45" t="inlineStr"/>
+      <c r="H18" s="47" t="inlineStr"/>
       <c r="I18" s="21" t="n"/>
       <c r="J18" s="21" t="n"/>
       <c r="K18" s="21" t="n"/>
@@ -2110,14 +2020,8 @@
           <t>y</t>
         </is>
       </c>
-      <c r="G19" s="45" t="n">
-        <v>43823.62975119213</v>
-      </c>
-      <c r="H19" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G19" s="45" t="inlineStr"/>
+      <c r="H19" s="47" t="inlineStr"/>
       <c r="I19" s="21" t="n"/>
       <c r="J19" s="21" t="n"/>
       <c r="K19" s="21" t="n"/>
@@ -2153,14 +2057,8 @@
           <t>y</t>
         </is>
       </c>
-      <c r="G20" s="45" t="n">
-        <v>43823.63000084491</v>
-      </c>
-      <c r="H20" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G20" s="45" t="inlineStr"/>
+      <c r="H20" s="47" t="inlineStr"/>
       <c r="I20" s="21" t="n"/>
       <c r="J20" s="21" t="n"/>
       <c r="K20" s="21" t="n"/>
@@ -2196,14 +2094,8 @@
           <t>y</t>
         </is>
       </c>
-      <c r="G21" s="45" t="n">
-        <v>43823.63035186342</v>
-      </c>
-      <c r="H21" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G21" s="45" t="inlineStr"/>
+      <c r="H21" s="47" t="inlineStr"/>
       <c r="I21" s="21" t="n"/>
       <c r="J21" s="21" t="n"/>
       <c r="K21" s="21" t="n"/>
@@ -2239,14 +2131,8 @@
           <t>y</t>
         </is>
       </c>
-      <c r="G22" s="45" t="n">
-        <v>43823.63062653935</v>
-      </c>
-      <c r="H22" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="G22" s="45" t="inlineStr"/>
+      <c r="H22" s="47" t="inlineStr"/>
       <c r="I22" s="21" t="n"/>
       <c r="J22" s="21" t="n"/>
       <c r="K22" s="21" t="n"/>
@@ -2282,14 +2168,8 @@
           <t>y</t>
         </is>
       </c>
-      <c r="G23" s="45" t="n">
-        <v>43823.63092649305</v>
-      </c>
-      <c r="H23" s="48" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
+      <c r="G23" s="45" t="inlineStr"/>
+      <c r="H23" s="48" t="inlineStr"/>
       <c r="I23" s="21" t="n"/>
       <c r="J23" s="21" t="n"/>
       <c r="K23" s="21" t="n"/>
@@ -2692,23 +2572,14 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="K2" s="45" t="n">
-        <v>43823.62889255787</v>
-      </c>
-      <c r="L2" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K2" s="45" t="inlineStr"/>
+      <c r="L2" s="47" t="inlineStr"/>
       <c r="M2" s="5" t="n"/>
       <c r="N2" s="5" t="n"/>
       <c r="O2" s="5" t="n"/>
       <c r="P2" s="5" t="n"/>
       <c r="Q2" s="5" t="inlineStr"/>
-      <c r="R2" s="5">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_12\2019-12-24_15-05-35-647000.png", "D:\自动化测试截图\登录\test_login_12\2019-12-24_15-05-35-647000.png")</f>
-        <v/>
-      </c>
+      <c r="R2" s="5" t="inlineStr"/>
       <c r="AB2" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -2746,23 +2617,14 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="K3" s="45" t="n">
-        <v>43823.62890141203</v>
-      </c>
-      <c r="L3" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K3" s="45" t="inlineStr"/>
+      <c r="L3" s="47" t="inlineStr"/>
       <c r="M3" s="5" t="n"/>
       <c r="N3" s="5" t="n"/>
       <c r="O3" s="5" t="n"/>
       <c r="P3" s="5" t="n"/>
       <c r="Q3" s="5" t="inlineStr"/>
-      <c r="R3" s="5">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_12\2019-12-24_15-05-36-450000.png", "D:\自动化测试截图\登录\test_login_12\2019-12-24_15-05-36-450000.png")</f>
-        <v/>
-      </c>
+      <c r="R3" s="5" t="inlineStr"/>
     </row>
     <row customFormat="1" customHeight="1" ht="27" r="4" s="8">
       <c r="A4" s="6" t="n"/>
@@ -2791,23 +2653,14 @@
         </is>
       </c>
       <c r="J4" s="16" t="n"/>
-      <c r="K4" s="45" t="n">
-        <v>43823.62892129629</v>
-      </c>
-      <c r="L4" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K4" s="45" t="inlineStr"/>
+      <c r="L4" s="47" t="inlineStr"/>
       <c r="M4" s="5" t="n"/>
       <c r="N4" s="5" t="n"/>
       <c r="O4" s="5" t="n"/>
       <c r="P4" s="5" t="n"/>
       <c r="Q4" s="5" t="inlineStr"/>
-      <c r="R4" s="5">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_12\2019-12-24_15-05-38-241000.png", "D:\自动化测试截图\登录\test_login_12\2019-12-24_15-05-38-241000.png")</f>
-        <v/>
-      </c>
+      <c r="R4" s="5" t="inlineStr"/>
     </row>
     <row customFormat="1" customHeight="1" ht="27" r="5" s="8">
       <c r="A5" s="6" t="n"/>
@@ -2836,23 +2689,14 @@
         </is>
       </c>
       <c r="J5" s="5" t="n"/>
-      <c r="K5" s="45" t="n">
-        <v>43823.6289293287</v>
-      </c>
-      <c r="L5" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K5" s="45" t="inlineStr"/>
+      <c r="L5" s="47" t="inlineStr"/>
       <c r="M5" s="5" t="n"/>
       <c r="N5" s="5" t="n"/>
       <c r="O5" s="5" t="n"/>
       <c r="P5" s="5" t="n"/>
       <c r="Q5" s="5" t="inlineStr"/>
-      <c r="R5" s="5">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_12\2019-12-24_15-05-39-005000.png", "D:\自动化测试截图\登录\test_login_12\2019-12-24_15-05-39-005000.png")</f>
-        <v/>
-      </c>
+      <c r="R5" s="5" t="inlineStr"/>
     </row>
     <row customFormat="1" customHeight="1" ht="27" r="6" s="8">
       <c r="A6" s="6" t="n"/>
@@ -2881,23 +2725,14 @@
         </is>
       </c>
       <c r="J6" s="5" t="n"/>
-      <c r="K6" s="45" t="n">
-        <v>43823.62893824074</v>
-      </c>
-      <c r="L6" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K6" s="45" t="inlineStr"/>
+      <c r="L6" s="47" t="inlineStr"/>
       <c r="M6" s="5" t="n"/>
       <c r="N6" s="5" t="n"/>
       <c r="O6" s="5" t="n"/>
       <c r="P6" s="5" t="n"/>
       <c r="Q6" s="5" t="inlineStr"/>
-      <c r="R6" s="5">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_12\2019-12-24_15-05-39-662000.png", "D:\自动化测试截图\登录\test_login_12\2019-12-24_15-05-39-662000.png")</f>
-        <v/>
-      </c>
+      <c r="R6" s="5" t="inlineStr"/>
       <c r="AA6" s="28" t="n"/>
       <c r="AB6" s="29" t="n"/>
     </row>
@@ -2928,23 +2763,14 @@
         </is>
       </c>
       <c r="J7" s="5" t="n"/>
-      <c r="K7" s="45" t="n">
-        <v>43823.62894627315</v>
-      </c>
-      <c r="L7" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K7" s="45" t="inlineStr"/>
+      <c r="L7" s="47" t="inlineStr"/>
       <c r="M7" s="5" t="n"/>
       <c r="N7" s="5" t="n"/>
       <c r="O7" s="5" t="n"/>
       <c r="P7" s="5" t="n"/>
       <c r="Q7" s="5" t="inlineStr"/>
-      <c r="R7" s="5">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_12\2019-12-24_15-05-40-429000.png", "D:\自动化测试截图\登录\test_login_12\2019-12-24_15-05-40-429000.png")</f>
-        <v/>
-      </c>
+      <c r="R7" s="5" t="inlineStr"/>
       <c r="AA7" s="28" t="n"/>
       <c r="AB7" s="29" t="n"/>
     </row>
@@ -2987,23 +2813,14 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="K8" s="45" t="n">
-        <v>43823.62964152778</v>
-      </c>
-      <c r="L8" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K8" s="45" t="inlineStr"/>
+      <c r="L8" s="47" t="inlineStr"/>
       <c r="M8" s="5" t="n"/>
       <c r="N8" s="5" t="n"/>
       <c r="O8" s="5" t="n"/>
       <c r="P8" s="5" t="n"/>
       <c r="Q8" s="5" t="inlineStr"/>
-      <c r="R8" s="5">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_16\2019-12-24_15-06-40-264000.png", "D:\自动化测试截图\登录\test_login_16\2019-12-24_15-06-40-264000.png")</f>
-        <v/>
-      </c>
+      <c r="R8" s="5" t="inlineStr"/>
     </row>
     <row customFormat="1" customHeight="1" ht="27" r="9" s="8">
       <c r="A9" s="6" t="n"/>
@@ -3036,23 +2853,14 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="K9" s="45" t="n">
-        <v>43823.62965221065</v>
-      </c>
-      <c r="L9" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K9" s="45" t="inlineStr"/>
+      <c r="L9" s="47" t="inlineStr"/>
       <c r="M9" s="5" t="n"/>
       <c r="N9" s="5" t="n"/>
       <c r="O9" s="5" t="n"/>
       <c r="P9" s="5" t="n"/>
       <c r="Q9" s="5" t="inlineStr"/>
-      <c r="R9" s="5">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_16\2019-12-24_15-06-41-284000.png", "D:\自动化测试截图\登录\test_login_16\2019-12-24_15-06-41-284000.png")</f>
-        <v/>
-      </c>
+      <c r="R9" s="5" t="inlineStr"/>
     </row>
     <row customFormat="1" customHeight="1" ht="27" r="10" s="8">
       <c r="A10" s="6" t="n"/>
@@ -3081,23 +2889,14 @@
         </is>
       </c>
       <c r="J10" s="16" t="n"/>
-      <c r="K10" s="45" t="n">
-        <v>43823.62967284722</v>
-      </c>
-      <c r="L10" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K10" s="45" t="inlineStr"/>
+      <c r="L10" s="47" t="inlineStr"/>
       <c r="M10" s="5" t="n"/>
       <c r="N10" s="5" t="n"/>
       <c r="O10" s="5" t="n"/>
       <c r="P10" s="5" t="n"/>
       <c r="Q10" s="5" t="inlineStr"/>
-      <c r="R10" s="5">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_16\2019-12-24_15-06-43-201000.png", "D:\自动化测试截图\登录\test_login_16\2019-12-24_15-06-43-201000.png")</f>
-        <v/>
-      </c>
+      <c r="R10" s="5" t="inlineStr"/>
     </row>
     <row customFormat="1" customHeight="1" ht="27" r="11" s="8">
       <c r="A11" s="6" t="n"/>
@@ -3126,23 +2925,14 @@
         </is>
       </c>
       <c r="J11" s="5" t="n"/>
-      <c r="K11" s="45" t="n">
-        <v>43823.62968059027</v>
-      </c>
-      <c r="L11" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K11" s="45" t="inlineStr"/>
+      <c r="L11" s="47" t="inlineStr"/>
       <c r="M11" s="5" t="n"/>
       <c r="N11" s="5" t="n"/>
       <c r="O11" s="5" t="n"/>
       <c r="P11" s="5" t="n"/>
       <c r="Q11" s="5" t="inlineStr"/>
-      <c r="R11" s="5">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_16\2019-12-24_15-06-43-844000.png", "D:\自动化测试截图\登录\test_login_16\2019-12-24_15-06-43-844000.png")</f>
-        <v/>
-      </c>
+      <c r="R11" s="5" t="inlineStr"/>
     </row>
     <row customFormat="1" customHeight="1" ht="27" r="12" s="8">
       <c r="A12" s="7" t="n"/>
@@ -3171,23 +2961,14 @@
         </is>
       </c>
       <c r="J12" s="5" t="n"/>
-      <c r="K12" s="45" t="n">
-        <v>43823.62968912037</v>
-      </c>
-      <c r="L12" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K12" s="45" t="inlineStr"/>
+      <c r="L12" s="47" t="inlineStr"/>
       <c r="M12" s="5" t="n"/>
       <c r="N12" s="5" t="n"/>
       <c r="O12" s="5" t="n"/>
       <c r="P12" s="5" t="n"/>
       <c r="Q12" s="5" t="inlineStr"/>
-      <c r="R12" s="24">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_16\2019-12-24_15-06-44-598000.png", "D:\自动化测试截图\登录\test_login_16\2019-12-24_15-06-44-598000.png")</f>
-        <v/>
-      </c>
+      <c r="R12" s="24" t="inlineStr"/>
       <c r="AA12" s="28" t="n"/>
       <c r="AB12" s="29" t="n"/>
     </row>
@@ -3238,23 +3019,14 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="K13" s="45" t="n">
-        <v>43823.62703685185</v>
-      </c>
-      <c r="L13" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K13" s="45" t="inlineStr"/>
+      <c r="L13" s="47" t="inlineStr"/>
       <c r="M13" s="5" t="n"/>
       <c r="N13" s="5" t="n"/>
       <c r="O13" s="5" t="n"/>
       <c r="P13" s="5" t="n"/>
       <c r="Q13" s="5" t="inlineStr"/>
-      <c r="R13" s="25">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_1\2019-12-24_15-02-55-164000.png", "D:\自动化测试截图\登录\test_login_1\2019-12-24_15-02-55-164000.png")</f>
-        <v/>
-      </c>
+      <c r="R13" s="25" t="inlineStr"/>
       <c r="AA13" s="30" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="14" s="1">
@@ -3309,23 +3081,14 @@
         </is>
       </c>
       <c r="J15" s="5" t="n"/>
-      <c r="K15" s="45" t="n">
-        <v>43823.62705313657</v>
-      </c>
-      <c r="L15" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K15" s="45" t="inlineStr"/>
+      <c r="L15" s="47" t="inlineStr"/>
       <c r="M15" s="5" t="n"/>
       <c r="N15" s="5" t="n"/>
       <c r="O15" s="5" t="n"/>
       <c r="P15" s="5" t="n"/>
       <c r="Q15" s="5" t="inlineStr"/>
-      <c r="R15" s="5">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_1\2019-12-24_15-02-56-444000.png", "D:\自动化测试截图\登录\test_login_1\2019-12-24_15-02-56-444000.png")</f>
-        <v/>
-      </c>
+      <c r="R15" s="5" t="inlineStr"/>
       <c r="AA15" s="31" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="16" s="1">
@@ -3351,23 +3114,14 @@
           <t>请输入密码！</t>
         </is>
       </c>
-      <c r="K16" s="45" t="n">
-        <v>43823.62706236111</v>
-      </c>
-      <c r="L16" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K16" s="45" t="inlineStr"/>
+      <c r="L16" s="47" t="inlineStr"/>
       <c r="M16" s="5" t="n"/>
       <c r="N16" s="5" t="n"/>
       <c r="O16" s="5" t="n"/>
       <c r="P16" s="5" t="n"/>
       <c r="Q16" s="5" t="inlineStr"/>
-      <c r="R16" s="5">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_1\2019-12-24_15-02-57-407000.png", "D:\自动化测试截图\登录\test_login_1\2019-12-24_15-02-57-407000.png")</f>
-        <v/>
-      </c>
+      <c r="R16" s="5" t="inlineStr"/>
       <c r="AA16" s="28" t="n"/>
     </row>
     <row customHeight="1" ht="19.8" r="17" s="1">
@@ -3442,23 +3196,14 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="K18" s="45" t="n">
-        <v>43823.62718811342</v>
-      </c>
-      <c r="L18" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K18" s="45" t="inlineStr"/>
+      <c r="L18" s="47" t="inlineStr"/>
       <c r="M18" s="5" t="n"/>
       <c r="N18" s="5" t="n"/>
       <c r="O18" s="5" t="n"/>
       <c r="P18" s="5" t="n"/>
       <c r="Q18" s="5" t="inlineStr"/>
-      <c r="R18" s="5">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_2\2019-12-24_15-03-08-322000.png", "D:\自动化测试截图\登录\test_login_2\2019-12-24_15-03-08-322000.png")</f>
-        <v/>
-      </c>
+      <c r="R18" s="5" t="inlineStr"/>
       <c r="AA18" s="28" t="n"/>
     </row>
     <row customHeight="1" ht="19.8" r="19" s="1">
@@ -3488,23 +3233,14 @@
         </is>
       </c>
       <c r="J19" s="5" t="n"/>
-      <c r="K19" s="45" t="n">
-        <v>43823.62720086805</v>
-      </c>
-      <c r="L19" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K19" s="45" t="inlineStr"/>
+      <c r="L19" s="47" t="inlineStr"/>
       <c r="M19" s="5" t="n"/>
       <c r="N19" s="5" t="n"/>
       <c r="O19" s="5" t="n"/>
       <c r="P19" s="5" t="n"/>
       <c r="Q19" s="5" t="inlineStr"/>
-      <c r="R19" s="5">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_2\2019-12-24_15-03-09-400000.png", "D:\自动化测试截图\登录\test_login_2\2019-12-24_15-03-09-400000.png")</f>
-        <v/>
-      </c>
+      <c r="R19" s="5" t="inlineStr"/>
       <c r="AA19" s="28" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="20" s="1">
@@ -3534,23 +3270,14 @@
           <t>请输入帐号！</t>
         </is>
       </c>
-      <c r="K20" s="45" t="n">
-        <v>43823.62720857639</v>
-      </c>
-      <c r="L20" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K20" s="45" t="inlineStr"/>
+      <c r="L20" s="47" t="inlineStr"/>
       <c r="M20" s="5" t="n"/>
       <c r="N20" s="5" t="n"/>
       <c r="O20" s="5" t="n"/>
       <c r="P20" s="5" t="n"/>
       <c r="Q20" s="5" t="inlineStr"/>
-      <c r="R20" s="5">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_2\2019-12-24_15-03-10-168000.png", "D:\自动化测试截图\登录\test_login_2\2019-12-24_15-03-10-168000.png")</f>
-        <v/>
-      </c>
+      <c r="R20" s="5" t="inlineStr"/>
       <c r="AA20" s="28" t="n"/>
     </row>
     <row customHeight="1" ht="19.8" r="21" s="1">
@@ -3646,23 +3373,14 @@
         </is>
       </c>
       <c r="J23" s="5" t="n"/>
-      <c r="K23" s="45" t="n">
-        <v>43823.62732738426</v>
-      </c>
-      <c r="L23" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K23" s="45" t="inlineStr"/>
+      <c r="L23" s="47" t="inlineStr"/>
       <c r="M23" s="5" t="n"/>
       <c r="N23" s="5" t="n"/>
       <c r="O23" s="5" t="n"/>
       <c r="P23" s="5" t="n"/>
       <c r="Q23" s="5" t="inlineStr"/>
-      <c r="R23" s="5">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_3\2019-12-24_15-03-20-376000.png", "D:\自动化测试截图\登录\test_login_3\2019-12-24_15-03-20-376000.png")</f>
-        <v/>
-      </c>
+      <c r="R23" s="5" t="inlineStr"/>
       <c r="AA23" s="28" t="n"/>
     </row>
     <row customHeight="1" ht="28.5" r="24" s="1">
@@ -3692,23 +3410,14 @@
           <t>请输入帐号！</t>
         </is>
       </c>
-      <c r="K24" s="45" t="n">
-        <v>43823.6273347338</v>
-      </c>
-      <c r="L24" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K24" s="45" t="inlineStr"/>
+      <c r="L24" s="47" t="inlineStr"/>
       <c r="M24" s="5" t="n"/>
       <c r="N24" s="5" t="n"/>
       <c r="O24" s="5" t="n"/>
       <c r="P24" s="5" t="n"/>
       <c r="Q24" s="5" t="inlineStr"/>
-      <c r="R24" s="5">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_3\2019-12-24_15-03-21-095000.png", "D:\自动化测试截图\登录\test_login_3\2019-12-24_15-03-21-095000.png")</f>
-        <v/>
-      </c>
+      <c r="R24" s="5" t="inlineStr"/>
       <c r="Y24" s="30" t="n"/>
       <c r="AA24" s="32" t="n"/>
     </row>
@@ -3759,23 +3468,14 @@
           <t>admin222</t>
         </is>
       </c>
-      <c r="K25" s="45" t="n">
-        <v>43823.62745921296</v>
-      </c>
-      <c r="L25" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K25" s="45" t="inlineStr"/>
+      <c r="L25" s="47" t="inlineStr"/>
       <c r="M25" s="5" t="n"/>
       <c r="N25" s="5" t="n"/>
       <c r="O25" s="5" t="n"/>
       <c r="P25" s="5" t="n"/>
       <c r="Q25" s="5" t="inlineStr"/>
-      <c r="R25" s="5">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_4\2019-12-24_15-03-31-784000.png", "D:\自动化测试截图\登录\test_login_4\2019-12-24_15-03-31-784000.png")</f>
-        <v/>
-      </c>
+      <c r="R25" s="5" t="inlineStr"/>
       <c r="AA25" s="32" t="n"/>
     </row>
     <row customHeight="1" ht="19.8" r="26" s="1">
@@ -3809,23 +3509,14 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="K26" s="45" t="n">
-        <v>43823.62746868056</v>
-      </c>
-      <c r="L26" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K26" s="45" t="inlineStr"/>
+      <c r="L26" s="47" t="inlineStr"/>
       <c r="M26" s="5" t="n"/>
       <c r="N26" s="5" t="n"/>
       <c r="O26" s="5" t="n"/>
       <c r="P26" s="5" t="n"/>
       <c r="Q26" s="5" t="inlineStr"/>
-      <c r="R26" s="26">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_4\2019-12-24_15-03-32-618000.png", "D:\自动化测试截图\登录\test_login_4\2019-12-24_15-03-32-618000.png")</f>
-        <v/>
-      </c>
+      <c r="R26" s="26" t="inlineStr"/>
       <c r="AA26" s="28" t="n"/>
     </row>
     <row customHeight="1" ht="19.8" r="27" s="1">
@@ -3855,23 +3546,14 @@
         </is>
       </c>
       <c r="J27" s="5" t="n"/>
-      <c r="K27" s="45" t="n">
-        <v>43823.62748130787</v>
-      </c>
-      <c r="L27" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K27" s="45" t="inlineStr"/>
+      <c r="L27" s="47" t="inlineStr"/>
       <c r="M27" s="5" t="n"/>
       <c r="N27" s="5" t="n"/>
       <c r="O27" s="5" t="n"/>
       <c r="P27" s="5" t="n"/>
       <c r="Q27" s="5" t="inlineStr"/>
-      <c r="R27" s="26">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_4\2019-12-24_15-03-33-614000.png", "D:\自动化测试截图\登录\test_login_4\2019-12-24_15-03-33-614000.png")</f>
-        <v/>
-      </c>
+      <c r="R27" s="26" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="28" s="1">
       <c r="A28" s="7" t="n"/>
@@ -3900,23 +3582,14 @@
           <t>帐号不存在!</t>
         </is>
       </c>
-      <c r="K28" s="45" t="n">
-        <v>43823.6274890625</v>
-      </c>
-      <c r="L28" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K28" s="45" t="inlineStr"/>
+      <c r="L28" s="47" t="inlineStr"/>
       <c r="M28" s="5" t="n"/>
       <c r="N28" s="5" t="n"/>
       <c r="O28" s="5" t="n"/>
       <c r="P28" s="5" t="n"/>
       <c r="Q28" s="5" t="inlineStr"/>
-      <c r="R28" s="5">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_4\2019-12-24_15-03-34-395000.png", "D:\自动化测试截图\登录\test_login_4\2019-12-24_15-03-34-395000.png")</f>
-        <v/>
-      </c>
+      <c r="R28" s="5" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="29" s="1">
       <c r="A29" s="5" t="inlineStr">
@@ -3965,23 +3638,14 @@
           <t>111111111111111111111</t>
         </is>
       </c>
-      <c r="K29" s="45" t="n">
-        <v>43823.62761878473</v>
-      </c>
-      <c r="L29" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K29" s="45" t="inlineStr"/>
+      <c r="L29" s="47" t="inlineStr"/>
       <c r="M29" s="5" t="n"/>
       <c r="N29" s="5" t="n"/>
       <c r="O29" s="5" t="n"/>
       <c r="P29" s="5" t="n"/>
       <c r="Q29" s="5" t="inlineStr"/>
-      <c r="R29" s="5">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_5\2019-12-24_15-03-45-522000.png", "D:\自动化测试截图\登录\test_login_5\2019-12-24_15-03-45-522000.png")</f>
-        <v/>
-      </c>
+      <c r="R29" s="5" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="30" s="1">
       <c r="A30" s="7" t="n"/>
@@ -4012,23 +3676,14 @@
       <c r="J30" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="K30" s="45" t="n">
-        <v>43823.62762883102</v>
-      </c>
-      <c r="L30" s="47" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K30" s="45" t="inlineStr"/>
+      <c r="L30" s="47" t="inlineStr"/>
       <c r="M30" s="5" t="n"/>
       <c r="N30" s="5" t="n"/>
       <c r="O30" s="5" t="n"/>
       <c r="P30" s="5" t="n"/>
       <c r="Q30" s="5" t="inlineStr"/>
-      <c r="R30" s="26">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_5\2019-12-24_15-03-46-461000.png", "D:\自动化测试截图\登录\test_login_5\2019-12-24_15-03-46-461000.png")</f>
-        <v/>
-      </c>
+      <c r="R30" s="26" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="31" s="1">
       <c r="A31" s="5" t="inlineStr">
@@ -4077,23 +3732,14 @@
           <t>111111111111111111111</t>
         </is>
       </c>
-      <c r="K31" s="46" t="n">
-        <v>43823.62778608796</v>
-      </c>
-      <c r="L31" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K31" s="46" t="inlineStr"/>
+      <c r="L31" s="49" t="inlineStr"/>
       <c r="M31" s="16" t="n"/>
       <c r="N31" s="16" t="n"/>
       <c r="O31" s="16" t="n"/>
       <c r="P31" s="16" t="n"/>
       <c r="Q31" s="16" t="inlineStr"/>
-      <c r="R31" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_6\2019-12-24_15-03-59-984000.png", "D:\自动化测试截图\登录\test_login_6\2019-12-24_15-03-59-984000.png")</f>
-        <v/>
-      </c>
+      <c r="R31" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="32" s="1">
       <c r="A32" s="7" t="n"/>
@@ -4124,23 +3770,14 @@
       <c r="J32" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="K32" s="46" t="n">
-        <v>43823.62779686342</v>
-      </c>
-      <c r="L32" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K32" s="46" t="inlineStr"/>
+      <c r="L32" s="49" t="inlineStr"/>
       <c r="M32" s="16" t="n"/>
       <c r="N32" s="16" t="n"/>
       <c r="O32" s="16" t="n"/>
       <c r="P32" s="16" t="n"/>
       <c r="Q32" s="16" t="inlineStr"/>
-      <c r="R32" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_6\2019-12-24_15-04-00-976000.png", "D:\自动化测试截图\登录\test_login_6\2019-12-24_15-04-00-976000.png")</f>
-        <v/>
-      </c>
+      <c r="R32" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="33" s="1">
       <c r="A33" s="5" t="inlineStr">
@@ -4194,23 +3831,14 @@
           <t>132$%!</t>
         </is>
       </c>
-      <c r="K33" s="46" t="n">
-        <v>43823.62800003473</v>
-      </c>
-      <c r="L33" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K33" s="46" t="inlineStr"/>
+      <c r="L33" s="49" t="inlineStr"/>
       <c r="M33" s="16" t="n"/>
       <c r="N33" s="16" t="n"/>
       <c r="O33" s="16" t="n"/>
       <c r="P33" s="16" t="n"/>
       <c r="Q33" s="16" t="inlineStr"/>
-      <c r="R33" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_7\2019-12-24_15-04-18-718000.png", "D:\自动化测试截图\登录\test_login_7\2019-12-24_15-04-18-718000.png")</f>
-        <v/>
-      </c>
+      <c r="R33" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="34" s="1">
       <c r="A34" s="6" t="n"/>
@@ -4239,23 +3867,14 @@
         </is>
       </c>
       <c r="J34" s="16" t="n"/>
-      <c r="K34" s="46" t="n">
-        <v>43823.62800768518</v>
-      </c>
-      <c r="L34" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K34" s="46" t="inlineStr"/>
+      <c r="L34" s="49" t="inlineStr"/>
       <c r="M34" s="16" t="n"/>
       <c r="N34" s="16" t="n"/>
       <c r="O34" s="16" t="n"/>
       <c r="P34" s="21" t="n"/>
       <c r="Q34" s="21" t="inlineStr"/>
-      <c r="R34" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_7\2019-12-24_15-04-19-353000.png", "D:\自动化测试截图\登录\test_login_7\2019-12-24_15-04-19-353000.png")</f>
-        <v/>
-      </c>
+      <c r="R34" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="35" r="35" s="1">
       <c r="A35" s="7" t="n"/>
@@ -4288,23 +3907,14 @@
           <t>无效密码：请输入英文字母数字组合，且不包含空格等特殊字符</t>
         </is>
       </c>
-      <c r="K35" s="46" t="n">
-        <v>43823.62801596065</v>
-      </c>
-      <c r="L35" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K35" s="46" t="inlineStr"/>
+      <c r="L35" s="49" t="inlineStr"/>
       <c r="M35" s="16" t="n"/>
       <c r="N35" s="16" t="n"/>
       <c r="O35" s="16" t="n"/>
       <c r="P35" s="21" t="n"/>
       <c r="Q35" s="21" t="inlineStr"/>
-      <c r="R35" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_7\2019-12-24_15-04-20-112000.png", "D:\自动化测试截图\登录\test_login_7\2019-12-24_15-04-20-112000.png")</f>
-        <v/>
-      </c>
+      <c r="R35" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="21" r="36" s="1">
       <c r="A36" s="5" t="inlineStr">
@@ -4356,23 +3966,14 @@
       <c r="J36" s="16" t="n">
         <v>12345</v>
       </c>
-      <c r="K36" s="46" t="n">
-        <v>43823.62819094907</v>
-      </c>
-      <c r="L36" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K36" s="46" t="inlineStr"/>
+      <c r="L36" s="49" t="inlineStr"/>
       <c r="M36" s="16" t="n"/>
       <c r="N36" s="16" t="n"/>
       <c r="O36" s="16" t="n"/>
       <c r="P36" s="21" t="n"/>
       <c r="Q36" s="21" t="inlineStr"/>
-      <c r="R36" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_8\2019-12-24_15-04-35-219000.png", "D:\自动化测试截图\登录\test_login_8\2019-12-24_15-04-35-219000.png")</f>
-        <v/>
-      </c>
+      <c r="R36" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="37" s="1">
       <c r="A37" s="6" t="n"/>
@@ -4401,23 +4002,14 @@
         </is>
       </c>
       <c r="J37" s="16" t="n"/>
-      <c r="K37" s="46" t="n">
-        <v>43823.6281978125</v>
-      </c>
-      <c r="L37" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K37" s="46" t="inlineStr"/>
+      <c r="L37" s="49" t="inlineStr"/>
       <c r="M37" s="16" t="n"/>
       <c r="N37" s="16" t="n"/>
       <c r="O37" s="16" t="n"/>
       <c r="P37" s="21" t="n"/>
       <c r="Q37" s="21" t="inlineStr"/>
-      <c r="R37" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_8\2019-12-24_15-04-35-809000.png", "D:\自动化测试截图\登录\test_login_8\2019-12-24_15-04-35-809000.png")</f>
-        <v/>
-      </c>
+      <c r="R37" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="38" s="1">
       <c r="A38" s="7" t="n"/>
@@ -4450,23 +4042,14 @@
           <t>输入内容长度必须介于6和18之间</t>
         </is>
       </c>
-      <c r="K38" s="46" t="n">
-        <v>43823.62820599537</v>
-      </c>
-      <c r="L38" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K38" s="46" t="inlineStr"/>
+      <c r="L38" s="49" t="inlineStr"/>
       <c r="M38" s="16" t="n"/>
       <c r="N38" s="16" t="n"/>
       <c r="O38" s="16" t="n"/>
       <c r="P38" s="21" t="n"/>
       <c r="Q38" s="21" t="inlineStr"/>
-      <c r="R38" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_8\2019-12-24_15-04-36-505000.png", "D:\自动化测试截图\登录\test_login_8\2019-12-24_15-04-36-505000.png")</f>
-        <v/>
-      </c>
+      <c r="R38" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="39" s="1">
       <c r="A39" s="5" t="inlineStr">
@@ -4520,23 +4103,14 @@
           <t>123456789123456789121</t>
         </is>
       </c>
-      <c r="K39" s="46" t="n">
-        <v>43823.6283783912</v>
-      </c>
-      <c r="L39" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K39" s="46" t="inlineStr"/>
+      <c r="L39" s="49" t="inlineStr"/>
       <c r="M39" s="16" t="n"/>
       <c r="N39" s="16" t="n"/>
       <c r="O39" s="16" t="n"/>
       <c r="P39" s="21" t="n"/>
       <c r="Q39" s="21" t="inlineStr"/>
-      <c r="R39" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_9\2019-12-24_15-04-51-411000.png", "D:\自动化测试截图\登录\test_login_9\2019-12-24_15-04-51-411000.png")</f>
-        <v/>
-      </c>
+      <c r="R39" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="40" s="1">
       <c r="A40" s="6" t="n"/>
@@ -4565,23 +4139,14 @@
         </is>
       </c>
       <c r="J40" s="16" t="n"/>
-      <c r="K40" s="46" t="n">
-        <v>43823.62838578704</v>
-      </c>
-      <c r="L40" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K40" s="46" t="inlineStr"/>
+      <c r="L40" s="49" t="inlineStr"/>
       <c r="M40" s="16" t="n"/>
       <c r="N40" s="16" t="n"/>
       <c r="O40" s="16" t="n"/>
       <c r="P40" s="21" t="n"/>
       <c r="Q40" s="21" t="inlineStr"/>
-      <c r="R40" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_9\2019-12-24_15-04-52-026000.png", "D:\自动化测试截图\登录\test_login_9\2019-12-24_15-04-52-026000.png")</f>
-        <v/>
-      </c>
+      <c r="R40" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="41" s="1">
       <c r="A41" s="7" t="n"/>
@@ -4612,23 +4177,14 @@
       <c r="J41" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="K41" s="46" t="n">
-        <v>43823.62839482639</v>
-      </c>
-      <c r="L41" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K41" s="46" t="inlineStr"/>
+      <c r="L41" s="49" t="inlineStr"/>
       <c r="M41" s="16" t="n"/>
       <c r="N41" s="16" t="n"/>
       <c r="O41" s="16" t="n"/>
       <c r="P41" s="21" t="n"/>
       <c r="Q41" s="21" t="inlineStr"/>
-      <c r="R41" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_9\2019-12-24_15-04-52-836000.png", "D:\自动化测试截图\登录\test_login_9\2019-12-24_15-04-52-836000.png")</f>
-        <v/>
-      </c>
+      <c r="R41" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="42" s="1">
       <c r="A42" s="5" t="inlineStr">
@@ -4702,23 +4258,14 @@
         </is>
       </c>
       <c r="J43" s="16" t="n"/>
-      <c r="K43" s="46" t="n">
-        <v>43823.62858284722</v>
-      </c>
-      <c r="L43" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K43" s="46" t="inlineStr"/>
+      <c r="L43" s="49" t="inlineStr"/>
       <c r="M43" s="16" t="n"/>
       <c r="N43" s="16" t="n"/>
       <c r="O43" s="16" t="n"/>
       <c r="P43" s="21" t="n"/>
       <c r="Q43" s="21" t="inlineStr"/>
-      <c r="R43" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_10\2019-12-24_15-05-09-051000.png", "D:\自动化测试截图\登录\test_login_10\2019-12-24_15-05-09-051000.png")</f>
-        <v/>
-      </c>
+      <c r="R43" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="22" r="44" s="1">
       <c r="A44" s="7" t="n"/>
@@ -4751,23 +4298,14 @@
           <t>该输入项为必输项</t>
         </is>
       </c>
-      <c r="K44" s="46" t="n">
-        <v>43823.62859120371</v>
-      </c>
-      <c r="L44" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K44" s="46" t="inlineStr"/>
+      <c r="L44" s="49" t="inlineStr"/>
       <c r="M44" s="16" t="n"/>
       <c r="N44" s="16" t="n"/>
       <c r="O44" s="16" t="n"/>
       <c r="P44" s="21" t="n"/>
       <c r="Q44" s="27" t="inlineStr"/>
-      <c r="R44" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_10\2019-12-24_15-05-09-805000.png", "D:\自动化测试截图\登录\test_login_10\2019-12-24_15-05-09-805000.png")</f>
-        <v/>
-      </c>
+      <c r="R44" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="24" r="45" s="1">
       <c r="A45" s="5" t="inlineStr">
@@ -4819,23 +4357,14 @@
       <c r="J45" s="16" t="n">
         <v>123456</v>
       </c>
-      <c r="K45" s="46" t="n">
-        <v>43823.62876733796</v>
-      </c>
-      <c r="L45" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K45" s="46" t="inlineStr"/>
+      <c r="L45" s="49" t="inlineStr"/>
       <c r="M45" s="16" t="n"/>
       <c r="N45" s="16" t="n"/>
       <c r="O45" s="16" t="n"/>
       <c r="P45" s="21" t="n"/>
       <c r="Q45" s="21" t="inlineStr"/>
-      <c r="R45" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_11\2019-12-24_15-05-25-058000.png", "D:\自动化测试截图\登录\test_login_11\2019-12-24_15-05-25-058000.png")</f>
-        <v/>
-      </c>
+      <c r="R45" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="46" s="1">
       <c r="A46" s="6" t="n"/>
@@ -4866,23 +4395,14 @@
       <c r="J46" s="16" t="n">
         <v>12345</v>
       </c>
-      <c r="K46" s="46" t="n">
-        <v>43823.62877436342</v>
-      </c>
-      <c r="L46" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K46" s="46" t="inlineStr"/>
+      <c r="L46" s="49" t="inlineStr"/>
       <c r="M46" s="16" t="n"/>
       <c r="N46" s="16" t="n"/>
       <c r="O46" s="16" t="n"/>
       <c r="P46" s="21" t="n"/>
       <c r="Q46" s="21" t="inlineStr"/>
-      <c r="R46" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_11\2019-12-24_15-05-25-656000.png", "D:\自动化测试截图\登录\test_login_11\2019-12-24_15-05-25-656000.png")</f>
-        <v/>
-      </c>
+      <c r="R46" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="47" s="1">
       <c r="A47" s="6" t="n"/>
@@ -4911,23 +4431,14 @@
         </is>
       </c>
       <c r="J47" s="16" t="n"/>
-      <c r="K47" s="46" t="n">
-        <v>43823.6287812037</v>
-      </c>
-      <c r="L47" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K47" s="46" t="inlineStr"/>
+      <c r="L47" s="49" t="inlineStr"/>
       <c r="M47" s="16" t="n"/>
       <c r="N47" s="16" t="n"/>
       <c r="O47" s="16" t="n"/>
       <c r="P47" s="21" t="n"/>
       <c r="Q47" s="21" t="inlineStr"/>
-      <c r="R47" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_11\2019-12-24_15-05-26-229000.png", "D:\自动化测试截图\登录\test_login_11\2019-12-24_15-05-26-229000.png")</f>
-        <v/>
-      </c>
+      <c r="R47" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="22" r="48" s="1">
       <c r="A48" s="7" t="n"/>
@@ -4960,23 +4471,14 @@
           <t>两次输入密码不匹配</t>
         </is>
       </c>
-      <c r="K48" s="46" t="n">
-        <v>43823.62878895833</v>
-      </c>
-      <c r="L48" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K48" s="46" t="inlineStr"/>
+      <c r="L48" s="49" t="inlineStr"/>
       <c r="M48" s="16" t="n"/>
       <c r="N48" s="16" t="n"/>
       <c r="O48" s="16" t="n"/>
       <c r="P48" s="21" t="n"/>
       <c r="Q48" s="27" t="inlineStr"/>
-      <c r="R48" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_11\2019-12-24_15-05-26-904000.png", "D:\自动化测试截图\登录\test_login_11\2019-12-24_15-05-26-904000.png")</f>
-        <v/>
-      </c>
+      <c r="R48" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="24" r="49" s="1">
       <c r="A49" s="5" t="inlineStr">
@@ -5028,23 +4530,14 @@
       <c r="J49" s="16" t="n">
         <v>123456</v>
       </c>
-      <c r="K49" s="46" t="n">
-        <v>43823.62895373843</v>
-      </c>
-      <c r="L49" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K49" s="46" t="inlineStr"/>
+      <c r="L49" s="49" t="inlineStr"/>
       <c r="M49" s="16" t="n"/>
       <c r="N49" s="16" t="n"/>
       <c r="O49" s="16" t="n"/>
       <c r="P49" s="21" t="n"/>
       <c r="Q49" s="21" t="inlineStr"/>
-      <c r="R49" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_12\2019-12-24_15-05-41-132000.png", "D:\自动化测试截图\登录\test_login_12\2019-12-24_15-05-41-132000.png")</f>
-        <v/>
-      </c>
+      <c r="R49" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="50" s="1">
       <c r="A50" s="6" t="n"/>
@@ -5075,23 +4568,14 @@
       <c r="J50" s="16" t="n">
         <v>12345</v>
       </c>
-      <c r="K50" s="46" t="n">
-        <v>43823.62896152778</v>
-      </c>
-      <c r="L50" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K50" s="46" t="inlineStr"/>
+      <c r="L50" s="49" t="inlineStr"/>
       <c r="M50" s="16" t="n"/>
       <c r="N50" s="16" t="n"/>
       <c r="O50" s="16" t="n"/>
       <c r="P50" s="21" t="n"/>
       <c r="Q50" s="21" t="inlineStr"/>
-      <c r="R50" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_12\2019-12-24_15-05-41-796000.png", "D:\自动化测试截图\登录\test_login_12\2019-12-24_15-05-41-796000.png")</f>
-        <v/>
-      </c>
+      <c r="R50" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="51" s="1">
       <c r="A51" s="6" t="n"/>
@@ -5120,23 +4604,14 @@
         </is>
       </c>
       <c r="J51" s="16" t="n"/>
-      <c r="K51" s="46" t="n">
-        <v>43823.62896934028</v>
-      </c>
-      <c r="L51" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K51" s="46" t="inlineStr"/>
+      <c r="L51" s="49" t="inlineStr"/>
       <c r="M51" s="16" t="n"/>
       <c r="N51" s="16" t="n"/>
       <c r="O51" s="16" t="n"/>
       <c r="P51" s="21" t="n"/>
       <c r="Q51" s="21" t="inlineStr"/>
-      <c r="R51" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_12\2019-12-24_15-05-42-455000.png", "D:\自动化测试截图\登录\test_login_12\2019-12-24_15-05-42-455000.png")</f>
-        <v/>
-      </c>
+      <c r="R51" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="52" s="1">
       <c r="A52" s="6" t="n"/>
@@ -5167,23 +4642,14 @@
       <c r="J52" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="K52" s="46" t="n">
-        <v>43823.62897743056</v>
-      </c>
-      <c r="L52" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K52" s="46" t="inlineStr"/>
+      <c r="L52" s="49" t="inlineStr"/>
       <c r="M52" s="16" t="n"/>
       <c r="N52" s="16" t="n"/>
       <c r="O52" s="16" t="n"/>
       <c r="P52" s="21" t="n"/>
       <c r="Q52" s="27" t="inlineStr"/>
-      <c r="R52" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_12\2019-12-24_15-05-43-198000.png", "D:\自动化测试截图\登录\test_login_12\2019-12-24_15-05-43-198000.png")</f>
-        <v/>
-      </c>
+      <c r="R52" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="53" s="1">
       <c r="A53" s="7" t="n"/>
@@ -5214,23 +4680,14 @@
       <c r="J53" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="K53" s="46" t="n">
-        <v>43823.62898579861</v>
-      </c>
-      <c r="L53" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K53" s="46" t="inlineStr"/>
+      <c r="L53" s="49" t="inlineStr"/>
       <c r="M53" s="16" t="n"/>
       <c r="N53" s="16" t="n"/>
       <c r="O53" s="16" t="n"/>
       <c r="P53" s="21" t="n"/>
       <c r="Q53" s="27" t="inlineStr"/>
-      <c r="R53" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_12\2019-12-24_15-05-43-887000.png", "D:\自动化测试截图\登录\test_login_12\2019-12-24_15-05-43-887000.png")</f>
-        <v/>
-      </c>
+      <c r="R53" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="24" r="54" s="1">
       <c r="A54" s="5" t="inlineStr">
@@ -5280,23 +4737,14 @@
         </is>
       </c>
       <c r="J54" s="16" t="n"/>
-      <c r="K54" s="46" t="n">
-        <v>43823.62914542824</v>
-      </c>
-      <c r="L54" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K54" s="46" t="inlineStr"/>
+      <c r="L54" s="49" t="inlineStr"/>
       <c r="M54" s="16" t="n"/>
       <c r="N54" s="16" t="n"/>
       <c r="O54" s="16" t="n"/>
       <c r="P54" s="21" t="n"/>
       <c r="Q54" s="21" t="inlineStr"/>
-      <c r="R54" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_13\2019-12-24_15-05-57-631000.png", "D:\自动化测试截图\登录\test_login_13\2019-12-24_15-05-57-631000.png")</f>
-        <v/>
-      </c>
+      <c r="R54" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="55" s="1">
       <c r="A55" s="6" t="n"/>
@@ -5325,23 +4773,14 @@
         </is>
       </c>
       <c r="J55" s="16" t="n"/>
-      <c r="K55" s="46" t="n">
-        <v>43823.62915369213</v>
-      </c>
-      <c r="L55" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K55" s="46" t="inlineStr"/>
+      <c r="L55" s="49" t="inlineStr"/>
       <c r="M55" s="16" t="n"/>
       <c r="N55" s="16" t="n"/>
       <c r="O55" s="16" t="n"/>
       <c r="P55" s="21" t="n"/>
       <c r="Q55" s="21" t="inlineStr"/>
-      <c r="R55" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_13\2019-12-24_15-05-58-335000.png", "D:\自动化测试截图\登录\test_login_13\2019-12-24_15-05-58-335000.png")</f>
-        <v/>
-      </c>
+      <c r="R55" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="56" s="1">
       <c r="A56" s="7" t="n"/>
@@ -5374,23 +4813,14 @@
           <t>该输入项为必输项</t>
         </is>
       </c>
-      <c r="K56" s="46" t="n">
-        <v>43823.62916400463</v>
-      </c>
-      <c r="L56" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K56" s="46" t="inlineStr"/>
+      <c r="L56" s="49" t="inlineStr"/>
       <c r="M56" s="16" t="n"/>
       <c r="N56" s="16" t="n"/>
       <c r="O56" s="16" t="n"/>
       <c r="P56" s="21" t="n"/>
       <c r="Q56" s="21" t="inlineStr"/>
-      <c r="R56" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_13\2019-12-24_15-05-59-275000.png", "D:\自动化测试截图\登录\test_login_13\2019-12-24_15-05-59-275000.png")</f>
-        <v/>
-      </c>
+      <c r="R56" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="24" r="57" s="1">
       <c r="A57" s="5" t="inlineStr">
@@ -5440,23 +4870,14 @@
         </is>
       </c>
       <c r="J57" s="16" t="n"/>
-      <c r="K57" s="46" t="n">
-        <v>43823.62934165509</v>
-      </c>
-      <c r="L57" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K57" s="46" t="inlineStr"/>
+      <c r="L57" s="49" t="inlineStr"/>
       <c r="M57" s="16" t="n"/>
       <c r="N57" s="16" t="n"/>
       <c r="O57" s="16" t="n"/>
       <c r="P57" s="21" t="n"/>
       <c r="Q57" s="21" t="inlineStr"/>
-      <c r="R57" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_14\2019-12-24_15-06-14-642000.png", "D:\自动化测试截图\登录\test_login_14\2019-12-24_15-06-14-642000.png")</f>
-        <v/>
-      </c>
+      <c r="R57" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="24" r="58" s="1">
       <c r="A58" s="6" t="n"/>
@@ -5489,23 +4910,14 @@
           <t xml:space="preserve">       </t>
         </is>
       </c>
-      <c r="K58" s="46" t="n">
-        <v>43823.62934929398</v>
-      </c>
-      <c r="L58" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K58" s="46" t="inlineStr"/>
+      <c r="L58" s="49" t="inlineStr"/>
       <c r="M58" s="16" t="n"/>
       <c r="N58" s="16" t="n"/>
       <c r="O58" s="16" t="n"/>
       <c r="P58" s="21" t="n"/>
       <c r="Q58" s="21" t="inlineStr"/>
-      <c r="R58" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_14\2019-12-24_15-06-15-308000.png", "D:\自动化测试截图\登录\test_login_14\2019-12-24_15-06-15-308000.png")</f>
-        <v/>
-      </c>
+      <c r="R58" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="59" s="1">
       <c r="A59" s="6" t="n"/>
@@ -5534,23 +4946,14 @@
         </is>
       </c>
       <c r="J59" s="16" t="n"/>
-      <c r="K59" s="46" t="n">
-        <v>43823.62935664352</v>
-      </c>
-      <c r="L59" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K59" s="46" t="inlineStr"/>
+      <c r="L59" s="49" t="inlineStr"/>
       <c r="M59" s="16" t="n"/>
       <c r="N59" s="16" t="n"/>
       <c r="O59" s="16" t="n"/>
       <c r="P59" s="21" t="n"/>
       <c r="Q59" s="21" t="inlineStr"/>
-      <c r="R59" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_14\2019-12-24_15-06-15-936000.png", "D:\自动化测试截图\登录\test_login_14\2019-12-24_15-06-15-936000.png")</f>
-        <v/>
-      </c>
+      <c r="R59" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="60" s="1">
       <c r="A60" s="7" t="n"/>
@@ -5583,23 +4986,14 @@
           <t>不能为空</t>
         </is>
       </c>
-      <c r="K60" s="46" t="n">
-        <v>43823.62936456018</v>
-      </c>
-      <c r="L60" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K60" s="46" t="inlineStr"/>
+      <c r="L60" s="49" t="inlineStr"/>
       <c r="M60" s="16" t="n"/>
       <c r="N60" s="16" t="n"/>
       <c r="O60" s="16" t="n"/>
       <c r="P60" s="21" t="n"/>
       <c r="Q60" s="21" t="inlineStr"/>
-      <c r="R60" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_14\2019-12-24_15-06-16-645000.png", "D:\自动化测试截图\登录\test_login_14\2019-12-24_15-06-16-645000.png")</f>
-        <v/>
-      </c>
+      <c r="R60" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="24" r="61" s="1">
       <c r="A61" s="5" t="inlineStr">
@@ -5651,23 +5045,14 @@
       <c r="J61" s="16" t="n">
         <v>12345678911</v>
       </c>
-      <c r="K61" s="46" t="n">
-        <v>43823.62952284722</v>
-      </c>
-      <c r="L61" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K61" s="46" t="inlineStr"/>
+      <c r="L61" s="49" t="inlineStr"/>
       <c r="M61" s="16" t="n"/>
       <c r="N61" s="16" t="n"/>
       <c r="O61" s="16" t="n"/>
       <c r="P61" s="21" t="n"/>
       <c r="Q61" s="21" t="inlineStr"/>
-      <c r="R61" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_15\2019-12-24_15-06-30-284000.png", "D:\自动化测试截图\登录\test_login_15\2019-12-24_15-06-30-284000.png")</f>
-        <v/>
-      </c>
+      <c r="R61" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="62" s="1">
       <c r="A62" s="7" t="n"/>
@@ -5698,23 +5083,14 @@
       <c r="J62" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="K62" s="46" t="n">
-        <v>43823.6295321412</v>
-      </c>
-      <c r="L62" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K62" s="46" t="inlineStr"/>
+      <c r="L62" s="49" t="inlineStr"/>
       <c r="M62" s="16" t="n"/>
       <c r="N62" s="16" t="n"/>
       <c r="O62" s="16" t="n"/>
       <c r="P62" s="21" t="n"/>
       <c r="Q62" s="21" t="inlineStr"/>
-      <c r="R62" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_15\2019-12-24_15-06-31-043000.png", "D:\自动化测试截图\登录\test_login_15\2019-12-24_15-06-31-043000.png")</f>
-        <v/>
-      </c>
+      <c r="R62" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="29" r="63" s="1">
       <c r="A63" s="5" t="inlineStr">
@@ -5768,23 +5144,14 @@
           <t>11111111111111111111111111122222222222222222222221111111111111111111111111112222222222222222222222111111111111111111111111111222222222222222222222211111111111111111111111111122222222222222222222221111</t>
         </is>
       </c>
-      <c r="K63" s="46" t="n">
-        <v>43823.62971512732</v>
-      </c>
-      <c r="L63" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K63" s="46" t="inlineStr"/>
+      <c r="L63" s="49" t="inlineStr"/>
       <c r="M63" s="16" t="n"/>
       <c r="N63" s="16" t="n"/>
       <c r="O63" s="16" t="n"/>
       <c r="P63" s="21" t="n"/>
       <c r="Q63" s="21" t="inlineStr"/>
-      <c r="R63" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_16\2019-12-24_15-06-46-934000.png", "D:\自动化测试截图\登录\test_login_16\2019-12-24_15-06-46-934000.png")</f>
-        <v/>
-      </c>
+      <c r="R63" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="64" s="1">
       <c r="A64" s="7" t="n"/>
@@ -5815,23 +5182,14 @@
       <c r="J64" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="K64" s="46" t="n">
-        <v>43823.62972335648</v>
-      </c>
-      <c r="L64" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K64" s="46" t="inlineStr"/>
+      <c r="L64" s="49" t="inlineStr"/>
       <c r="M64" s="16" t="n"/>
       <c r="N64" s="16" t="n"/>
       <c r="O64" s="16" t="n"/>
       <c r="P64" s="21" t="n"/>
       <c r="Q64" s="21" t="inlineStr"/>
-      <c r="R64" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_16\2019-12-24_15-06-47-615000.png", "D:\自动化测试截图\登录\test_login_16\2019-12-24_15-06-47-615000.png")</f>
-        <v/>
-      </c>
+      <c r="R64" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="65" s="1">
       <c r="A65" s="5" t="inlineStr">
@@ -5877,23 +5235,14 @@
         </is>
       </c>
       <c r="J65" s="5" t="n"/>
-      <c r="K65" s="46" t="n">
-        <v>43823.62995737269</v>
-      </c>
-      <c r="L65" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K65" s="46" t="inlineStr"/>
+      <c r="L65" s="49" t="inlineStr"/>
       <c r="M65" s="16" t="n"/>
       <c r="N65" s="16" t="n"/>
       <c r="O65" s="16" t="n"/>
       <c r="P65" s="21" t="n"/>
       <c r="Q65" s="21" t="inlineStr"/>
-      <c r="R65" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_18\2019-12-24_15-07-07-861000.png", "D:\自动化测试截图\登录\test_login_18\2019-12-24_15-07-07-861000.png")</f>
-        <v/>
-      </c>
+      <c r="R65" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="29" r="66" s="1">
       <c r="A66" s="6" t="n"/>
@@ -5946,23 +5295,14 @@
         </is>
       </c>
       <c r="J67" s="5" t="n"/>
-      <c r="K67" s="46" t="n">
-        <v>43823.62996538194</v>
-      </c>
-      <c r="L67" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K67" s="46" t="inlineStr"/>
+      <c r="L67" s="49" t="inlineStr"/>
       <c r="M67" s="16" t="n"/>
       <c r="N67" s="16" t="n"/>
       <c r="O67" s="16" t="n"/>
       <c r="P67" s="21" t="n"/>
       <c r="Q67" s="21" t="inlineStr"/>
-      <c r="R67" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_18\2019-12-24_15-07-08-518000.png", "D:\自动化测试截图\登录\test_login_18\2019-12-24_15-07-08-518000.png")</f>
-        <v/>
-      </c>
+      <c r="R67" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="68" s="1">
       <c r="A68" s="7" t="n"/>
@@ -5995,23 +5335,14 @@
           <t>请输入注册码</t>
         </is>
       </c>
-      <c r="K68" s="46" t="n">
-        <v>43823.62997299768</v>
-      </c>
-      <c r="L68" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K68" s="46" t="inlineStr"/>
+      <c r="L68" s="49" t="inlineStr"/>
       <c r="M68" s="16" t="n"/>
       <c r="N68" s="16" t="n"/>
       <c r="O68" s="16" t="n"/>
       <c r="P68" s="21" t="n"/>
       <c r="Q68" s="21" t="inlineStr"/>
-      <c r="R68" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_18\2019-12-24_15-07-09-244000.png", "D:\自动化测试截图\登录\test_login_18\2019-12-24_15-07-09-244000.png")</f>
-        <v/>
-      </c>
+      <c r="R68" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="29" r="69" s="1">
       <c r="A69" s="5" t="inlineStr">
@@ -6057,23 +5388,14 @@
         </is>
       </c>
       <c r="J69" s="16" t="n"/>
-      <c r="K69" s="46" t="n">
-        <v>43823.63030395834</v>
-      </c>
-      <c r="L69" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K69" s="46" t="inlineStr"/>
+      <c r="L69" s="49" t="inlineStr"/>
       <c r="M69" s="16" t="n"/>
       <c r="N69" s="16" t="n"/>
       <c r="O69" s="16" t="n"/>
       <c r="P69" s="21" t="n"/>
       <c r="Q69" s="21" t="inlineStr"/>
-      <c r="R69" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_19\2019-12-24_15-07-37-774000.png", "D:\自动化测试截图\登录\test_login_19\2019-12-24_15-07-37-774000.png")</f>
-        <v/>
-      </c>
+      <c r="R69" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="29" r="70" s="1">
       <c r="A70" s="6" t="n"/>
@@ -6104,23 +5426,14 @@
       <c r="J70" s="16" t="n">
         <v>1233</v>
       </c>
-      <c r="K70" s="46" t="n">
-        <v>43823.6303109375</v>
-      </c>
-      <c r="L70" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K70" s="46" t="inlineStr"/>
+      <c r="L70" s="49" t="inlineStr"/>
       <c r="M70" s="16" t="n"/>
       <c r="N70" s="16" t="n"/>
       <c r="O70" s="16" t="n"/>
       <c r="P70" s="21" t="n"/>
       <c r="Q70" s="21" t="inlineStr"/>
-      <c r="R70" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_19\2019-12-24_15-07-38-395000.png", "D:\自动化测试截图\登录\test_login_19\2019-12-24_15-07-38-395000.png")</f>
-        <v/>
-      </c>
+      <c r="R70" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="71" s="1">
       <c r="A71" s="6" t="n"/>
@@ -6149,23 +5462,14 @@
         </is>
       </c>
       <c r="J71" s="5" t="n"/>
-      <c r="K71" s="46" t="n">
-        <v>43823.63031723379</v>
-      </c>
-      <c r="L71" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K71" s="46" t="inlineStr"/>
+      <c r="L71" s="49" t="inlineStr"/>
       <c r="M71" s="16" t="n"/>
       <c r="N71" s="16" t="n"/>
       <c r="O71" s="16" t="n"/>
       <c r="P71" s="21" t="n"/>
       <c r="Q71" s="21" t="inlineStr"/>
-      <c r="R71" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_19\2019-12-24_15-07-38-995000.png", "D:\自动化测试截图\登录\test_login_19\2019-12-24_15-07-38-995000.png")</f>
-        <v/>
-      </c>
+      <c r="R71" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="72" s="1">
       <c r="A72" s="7" t="n"/>
@@ -6198,23 +5502,14 @@
           <t>注册码长度错误</t>
         </is>
       </c>
-      <c r="K72" s="46" t="n">
-        <v>43823.63032467593</v>
-      </c>
-      <c r="L72" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K72" s="46" t="inlineStr"/>
+      <c r="L72" s="49" t="inlineStr"/>
       <c r="M72" s="16" t="n"/>
       <c r="N72" s="16" t="n"/>
       <c r="O72" s="16" t="n"/>
       <c r="P72" s="21" t="n"/>
       <c r="Q72" s="21" t="inlineStr"/>
-      <c r="R72" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_19\2019-12-24_15-07-39-629000.png", "D:\自动化测试截图\登录\test_login_19\2019-12-24_15-07-39-629000.png")</f>
-        <v/>
-      </c>
+      <c r="R72" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="29" r="73" s="1">
       <c r="A73" s="5" t="inlineStr">
@@ -6260,23 +5555,14 @@
         </is>
       </c>
       <c r="J73" s="16" t="n"/>
-      <c r="K73" s="46" t="n">
-        <v>43823.63057086805</v>
-      </c>
-      <c r="L73" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K73" s="46" t="inlineStr"/>
+      <c r="L73" s="49" t="inlineStr"/>
       <c r="M73" s="16" t="n"/>
       <c r="N73" s="16" t="n"/>
       <c r="O73" s="16" t="n"/>
       <c r="P73" s="21" t="n"/>
       <c r="Q73" s="21" t="inlineStr"/>
-      <c r="R73" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_20\2019-12-24_15-08-00-816000.png", "D:\自动化测试截图\登录\test_login_20\2019-12-24_15-08-00-816000.png")</f>
-        <v/>
-      </c>
+      <c r="R73" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="29" r="74" s="1">
       <c r="A74" s="6" t="n"/>
@@ -6309,23 +5595,14 @@
           <t>CCtd-rZOk-adWi-f3zK-R3O6-mF+X-tg5h-A43h</t>
         </is>
       </c>
-      <c r="K74" s="46" t="n">
-        <v>43823.63058313658</v>
-      </c>
-      <c r="L74" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K74" s="46" t="inlineStr"/>
+      <c r="L74" s="49" t="inlineStr"/>
       <c r="M74" s="16" t="n"/>
       <c r="N74" s="16" t="n"/>
       <c r="O74" s="16" t="n"/>
       <c r="P74" s="21" t="n"/>
       <c r="Q74" s="21" t="inlineStr"/>
-      <c r="R74" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_20\2019-12-24_15-08-01-919000.png", "D:\自动化测试截图\登录\test_login_20\2019-12-24_15-08-01-919000.png")</f>
-        <v/>
-      </c>
+      <c r="R74" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="75" s="1">
       <c r="A75" s="6" t="n"/>
@@ -6354,23 +5631,14 @@
         </is>
       </c>
       <c r="J75" s="5" t="n"/>
-      <c r="K75" s="46" t="n">
-        <v>43823.63059108796</v>
-      </c>
-      <c r="L75" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K75" s="46" t="inlineStr"/>
+      <c r="L75" s="49" t="inlineStr"/>
       <c r="M75" s="16" t="n"/>
       <c r="N75" s="16" t="n"/>
       <c r="O75" s="16" t="n"/>
       <c r="P75" s="21" t="n"/>
       <c r="Q75" s="21" t="inlineStr"/>
-      <c r="R75" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_20\2019-12-24_15-08-02-548000.png", "D:\自动化测试截图\登录\test_login_20\2019-12-24_15-08-02-548000.png")</f>
-        <v/>
-      </c>
+      <c r="R75" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="76" s="1">
       <c r="A76" s="7" t="n"/>
@@ -6403,23 +5671,14 @@
           <t>注册码不能重复注册 Error Code : 108</t>
         </is>
       </c>
-      <c r="K76" s="46" t="n">
-        <v>43823.63059934028</v>
-      </c>
-      <c r="L76" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K76" s="46" t="inlineStr"/>
+      <c r="L76" s="49" t="inlineStr"/>
       <c r="M76" s="16" t="n"/>
       <c r="N76" s="16" t="n"/>
       <c r="O76" s="16" t="n"/>
       <c r="P76" s="21" t="n"/>
       <c r="Q76" s="21" t="inlineStr"/>
-      <c r="R76" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_20\2019-12-24_15-08-03-362000.png", "D:\自动化测试截图\登录\test_login_20\2019-12-24_15-08-03-362000.png")</f>
-        <v/>
-      </c>
+      <c r="R76" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="29" r="77" s="1">
       <c r="A77" s="5" t="inlineStr">
@@ -6465,23 +5724,14 @@
         </is>
       </c>
       <c r="J77" s="16" t="n"/>
-      <c r="K77" s="46" t="n">
-        <v>43823.63085758102</v>
-      </c>
-      <c r="L77" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K77" s="46" t="inlineStr"/>
+      <c r="L77" s="49" t="inlineStr"/>
       <c r="M77" s="16" t="n"/>
       <c r="N77" s="16" t="n"/>
       <c r="O77" s="16" t="n"/>
       <c r="P77" s="21" t="n"/>
       <c r="Q77" s="21" t="inlineStr"/>
-      <c r="R77" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_21\2019-12-24_15-08-25-551000.png", "D:\自动化测试截图\登录\test_login_21\2019-12-24_15-08-25-551000.png")</f>
-        <v/>
-      </c>
+      <c r="R77" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="29" r="78" s="1">
       <c r="A78" s="6" t="n"/>
@@ -6514,23 +5764,14 @@
           <t>CCtd-rZOk-adWi-f3zK-R3O6-mF+X-tg5h-A4dd</t>
         </is>
       </c>
-      <c r="K78" s="46" t="n">
-        <v>43823.63086950232</v>
-      </c>
-      <c r="L78" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K78" s="46" t="inlineStr"/>
+      <c r="L78" s="49" t="inlineStr"/>
       <c r="M78" s="16" t="n"/>
       <c r="N78" s="16" t="n"/>
       <c r="O78" s="16" t="n"/>
       <c r="P78" s="21" t="n"/>
       <c r="Q78" s="21" t="inlineStr"/>
-      <c r="R78" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_21\2019-12-24_15-08-26-667000.png", "D:\自动化测试截图\登录\test_login_21\2019-12-24_15-08-26-667000.png")</f>
-        <v/>
-      </c>
+      <c r="R78" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="79" s="1">
       <c r="A79" s="6" t="n"/>
@@ -6559,23 +5800,14 @@
         </is>
       </c>
       <c r="J79" s="5" t="n"/>
-      <c r="K79" s="46" t="n">
-        <v>43823.63087766204</v>
-      </c>
-      <c r="L79" s="49" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K79" s="46" t="inlineStr"/>
+      <c r="L79" s="49" t="inlineStr"/>
       <c r="M79" s="16" t="n"/>
       <c r="N79" s="16" t="n"/>
       <c r="O79" s="16" t="n"/>
       <c r="P79" s="21" t="n"/>
       <c r="Q79" s="21" t="inlineStr"/>
-      <c r="R79" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_21\2019-12-24_15-08-27-299000.png", "D:\自动化测试截图\登录\test_login_21\2019-12-24_15-08-27-299000.png")</f>
-        <v/>
-      </c>
+      <c r="R79" s="16" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="27" r="80" s="1">
       <c r="A80" s="7" t="n"/>
@@ -6608,27 +5840,14 @@
           <t>注册码异常 Error Code : 102</t>
         </is>
       </c>
-      <c r="K80" s="46" t="n">
-        <v>43823.63088659722</v>
-      </c>
-      <c r="L80" s="51" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
+      <c r="K80" s="46" t="inlineStr"/>
+      <c r="L80" s="51" t="inlineStr"/>
       <c r="M80" s="16" t="n"/>
       <c r="N80" s="16" t="n"/>
       <c r="O80" s="16" t="n"/>
       <c r="P80" s="21" t="n"/>
-      <c r="Q80" s="21" t="inlineStr">
-        <is>
-          <t>断言失败</t>
-        </is>
-      </c>
-      <c r="R80" s="16">
-        <f>HYPERLINK("D:\自动化测试截图\登录\test_login_21\2019-12-24_15-08-28-061000.png", "D:\自动化测试截图\登录\test_login_21\2019-12-24_15-08-28-061000.png")</f>
-        <v/>
-      </c>
+      <c r="Q80" s="21" t="inlineStr"/>
+      <c r="R80" s="16" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="K81" s="0" t="inlineStr"/>
@@ -6818,14 +6037,9 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="用例编号" ref="A1" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="用例编号" ref="A1" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="用例编号" ref="A1" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="用例编号" ref="A1" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="用例编号" ref="A1" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="用例编号" ref="A1" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="用例编号" ref="A1" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="用例编号" ref="A1" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="用例编号" ref="A1" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="用例编号" ref="A1" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="用例编号" ref="A1" r:id="rId3"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -7461,30 +6675,15 @@
     <mergeCell ref="E10:E13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="用例编号" ref="A1" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://172.16.45.5" ref="J3" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://172.16.45.5" ref="J7" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="用例编号" ref="A1" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://172.16.45.5" ref="J3" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://172.16.45.5" ref="J7" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="用例编号" ref="A1" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://172.16.45.5" ref="J3" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://172.16.45.5" ref="J7" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="用例编号" ref="A1" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://172.16.45.5" ref="J3" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://172.16.45.5" ref="J7" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="用例编号" ref="A1" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://172.16.45.5" ref="J3" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://172.16.45.5" ref="J7" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="用例编号" ref="A1" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://172.16.45.5" ref="J3" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://172.16.45.5" ref="J7" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="用例编号" ref="A1" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://172.16.45.5" ref="J3" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://172.16.45.5" ref="J7" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="用例编号" ref="A1" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://172.16.45.5" ref="J3" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://172.16.45.5" ref="J7" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="用例编号" ref="A1" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://172.16.45.5" ref="J3" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://172.16.45.5" ref="J7" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="用例编号" ref="A1" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://172.16.45.5" ref="J3" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://172.16.45.5" ref="J7" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="用例编号" ref="A1" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://172.16.45.5" ref="J3" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://172.16.45.5" ref="J7" r:id="rId9"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
